--- a/biology/Botanique/Plantule/Plantule.xlsx
+++ b/biology/Botanique/Plantule/Plantule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plantule ou jeune pousse est une jeune plante sporophyte ne comportant que quelques feuilles. Issue de l'embryon d'une graine, son développement commence avec la germination de la graine.
 La plantule est constituée de trois parties principales : la radicule, la tigelle, issue de l'hypocotyle, d'un collet et les cotylédons.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Daniel Arnaud, « Produire soi-même de jeunes pousses », Jardins de France N°649,‎ avril-juin 2018 (lire en ligne)</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Symbole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La jeune plante fait l'objet d'un encodage Unicode :
 U+1F331 🌱 seedling (HTML : &amp;#127793;)</t>
